--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicar\Desktop\amir_predice_tisku\bioprint_optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F11B9D7-F505-4AA5-A1BA-7E7085487591}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4298F8E-2AF8-442B-A613-12905F401844}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +457,7 @@
     <col min="8" max="8" width="14.85546875" customWidth="true"/>
     <col min="9" max="9" width="13.140625" customWidth="true"/>
     <col min="10" max="10" width="9.85546875" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="10.7109375" customWidth="true"/>
     <col min="12" max="12" width="16.42578125" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
@@ -527,7 +527,7 @@
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
       <c r="J2" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
@@ -557,7 +557,7 @@
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
@@ -587,7 +587,7 @@
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
@@ -597,33 +597,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>2.6978485815098234</v>
+        <v>56.987091166147074</v>
       </c>
       <c r="C5" s="0">
-        <v>48.222130151738959</v>
+        <v>34.799162318827904</v>
       </c>
       <c r="D5" s="0">
-        <v>52.866865379242931</v>
+        <v>79.950057714220321</v>
       </c>
       <c r="E5" s="0">
-        <v>90.893814818925449</v>
+        <v>30.924546978463738</v>
       </c>
       <c r="F5" s="0">
-        <v>44.254357771591685</v>
+        <v>151.44592649611761</v>
       </c>
       <c r="G5" s="0">
-        <v>19.063276957675164</v>
+        <v>11.87194946824853</v>
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5" s="0">
-        <v>4.2429963034621956</v>
+        <v>2.0502215699679334</v>
       </c>
       <c r="L5" s="0">
-        <v>0.53349985582851778</v>
+        <v>0.91482179336249758</v>
       </c>
     </row>
     <row r="6">
@@ -631,31 +631,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0069893998988131145</v>
+        <v>87.552353810315253</v>
       </c>
       <c r="C6" s="0">
-        <v>38.431951443396287</v>
+        <v>2.7400758380464989</v>
       </c>
       <c r="D6" s="0">
-        <v>62.489896950534614</v>
+        <v>26.139842355913018</v>
       </c>
       <c r="E6" s="0">
-        <v>43.865667871165215</v>
+        <v>88.139668136808638</v>
       </c>
       <c r="F6" s="0">
-        <v>198.22768802819377</v>
+        <v>63.200196188288849</v>
       </c>
       <c r="G6" s="0">
-        <v>17.796910675164291</v>
+        <v>5.0000716791374469</v>
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0">
-        <v>3.796789768661001</v>
+        <v>2.26315115248177</v>
       </c>
       <c r="L6" s="0">
-        <v>0.84229823783819779</v>
+        <v>0.45229761968999999</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicar\Desktop\amir_predice_tisku\bioprint_optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4298F8E-2AF8-442B-A613-12905F401844}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1F2586-6271-4992-9FEA-FFC4D22D598F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025"/>
   </bookViews>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +457,7 @@
     <col min="8" max="8" width="14.85546875" customWidth="true"/>
     <col min="9" max="9" width="13.140625" customWidth="true"/>
     <col min="10" max="10" width="9.85546875" customWidth="true"/>
-    <col min="11" max="11" width="10.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="16.42578125" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
@@ -626,7 +626,7 @@
         <v>0.91482179336249758</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="0">
         <v>5</v>
       </c>
@@ -650,12 +650,46 @@
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
+      <c r="J6" s="0">
+        <v>2</v>
+      </c>
       <c r="K6" s="0">
         <v>2.26315115248177</v>
       </c>
       <c r="L6" s="0">
         <v>0.45229761968999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0">
+        <v>45.784657127246305</v>
+      </c>
+      <c r="C7" s="0">
+        <v>37.77764854076905</v>
+      </c>
+      <c r="D7" s="0">
+        <v>71.790078266937257</v>
+      </c>
+      <c r="E7" s="0">
+        <v>125.30916217698508</v>
+      </c>
+      <c r="F7" s="0">
+        <v>109.43174443037998</v>
+      </c>
+      <c r="G7" s="0">
+        <v>5.0069490395300349</v>
+      </c>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0">
+        <v>2.9318795326936939</v>
+      </c>
+      <c r="L7" s="0">
+        <v>0.96671197539936871</v>
       </c>
     </row>
   </sheetData>
